--- a/Session5/Reporte/EEE.xlsx
+++ b/Session5/Reporte/EEE.xlsx
@@ -8,14 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnADM\Documents\ESCUELA\GitHub\Cryptography\Session5\Reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CD5485-380E-4242-A33D-862ED34E5F71}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6F0D28-E59D-49C2-AFE3-1BD2F0E12B9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DAA030A1-45A4-4219-96BA-7377F6D53240}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DAA030A1-45A4-4219-96BA-7377F6D53240}"/>
   </bookViews>
   <sheets>
     <sheet name="EEE2keys" sheetId="1" r:id="rId1"/>
     <sheet name="EEE3keys" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">EEE2keys!$E$4:$E$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">EEE2keys!$F$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">EEE2keys!$F$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">EEE2keys!$F$4:$F$11</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">EEE2keys!$G$3</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">EEE2keys!$G$4:$G$11</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">EEE2keys!$H$3</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">EEE2keys!$H$4:$H$11</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">EEE2keys!$I$3</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">EEE2keys!$I$4:$I$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">EEE2keys!$F$4:$F$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">EEE2keys!$G$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">EEE2keys!$G$4:$G$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">EEE2keys!$H$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">EEE2keys!$H$4:$H$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">EEE2keys!$I$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">EEE2keys!$I$4:$I$11</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">EEE2keys!$E$4:$E$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -82,14 +102,14 @@
     <t>3DES EEE with 2 keys</t>
   </si>
   <si>
-    <t>3DES EEE with 3keys</t>
+    <t>3DES EEE with 3 keys</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +144,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,12 +161,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -158,7 +178,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -214,17 +246,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -241,6 +276,2622 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> in MS</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EEE2keys!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EEE2keys!$E$4:$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EEE2keys!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1766</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-689E-4BF4-A1C8-14D296609ACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EEE2keys!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CTR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EEE2keys!$E$4:$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EEE2keys!$G$4:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-689E-4BF4-A1C8-14D296609ACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EEE2keys!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OFB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EEE2keys!$E$4:$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EEE2keys!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-689E-4BF4-A1C8-14D296609ACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EEE2keys!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CFB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EEE2keys!$E$4:$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EEE2keys!$I$4:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-689E-4BF4-A1C8-14D296609ACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="456856120"/>
+        <c:axId val="456853496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="456856120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456853496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="456853496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456856120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1000"/>
+        <c:minorUnit val="200"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> in MS</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EEE3keys!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EEE3keys!$B$6:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EEE3keys!$C$6:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2733</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1794</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3524-48D1-AE42-82F780922073}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EEE3keys!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CTR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EEE3keys!$B$6:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EEE3keys!$D$6:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2655</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3524-48D1-AE42-82F780922073}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EEE3keys!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OFB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EEE3keys!$B$6:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EEE3keys!$E$6:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3524-48D1-AE42-82F780922073}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EEE3keys!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CFB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EEE3keys!$B$6:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>sistemas_operativos.pdf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mov_Pendulo_Simple.mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArquitecturaComputadoras.PDF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recursos_Apuntes_21_Vectorial.doc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aparato_Respiratorio.pptm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ha.exe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guia-tkinter.pdf</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ipn.PNG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EEE3keys!$F$6:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3524-48D1-AE42-82F780922073}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="332483456"/>
+        <c:axId val="332482144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="332483456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332482144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="332482144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332483456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>147635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69FD47A-5AEA-47CB-8BBD-0A925CF50AD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D757F3A9-4D80-4E5D-A0F4-D5626986BD40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,8 +3193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA874AA-FA17-45ED-95F0-40967887101A}">
   <dimension ref="B2:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,14 +3209,14 @@
     <col min="23" max="23" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="11" t="s">
+    <row r="2" spans="2:20" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="2:20" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -577,16 +3228,16 @@
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -773,7 +3424,7 @@
       <c r="I11" s="6">
         <v>312</v>
       </c>
-      <c r="T11" s="12"/>
+      <c r="T11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -781,6 +3432,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -788,8 +3440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314852CD-0825-4FAE-887A-5A0F26FF22C5}">
   <dimension ref="B4:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,29 +3449,29 @@
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -964,5 +3616,6 @@
     <mergeCell ref="B4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Session5/Reporte/EEE.xlsx
+++ b/Session5/Reporte/EEE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnADM\Documents\ESCUELA\GitHub\Cryptography\Session5\Reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6F0D28-E59D-49C2-AFE3-1BD2F0E12B9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E16C2B-10BD-4D48-8533-79518F57CB12}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DAA030A1-45A4-4219-96BA-7377F6D53240}"/>
   </bookViews>
@@ -16,26 +16,6 @@
     <sheet name="EEE2keys" sheetId="1" r:id="rId1"/>
     <sheet name="EEE3keys" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">EEE2keys!$E$4:$E$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">EEE2keys!$F$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">EEE2keys!$F$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">EEE2keys!$F$4:$F$11</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">EEE2keys!$G$3</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">EEE2keys!$G$4:$G$11</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">EEE2keys!$H$3</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">EEE2keys!$H$4:$H$11</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">EEE2keys!$I$3</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">EEE2keys!$I$4:$I$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">EEE2keys!$F$4:$F$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">EEE2keys!$G$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">EEE2keys!$G$4:$G$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">EEE2keys!$H$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">EEE2keys!$H$4:$H$11</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">EEE2keys!$I$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">EEE2keys!$I$4:$I$11</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">EEE2keys!$E$4:$E$11</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -435,28 +415,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7564</c:v>
+                  <c:v>4470</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5624</c:v>
+                  <c:v>2363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2702</c:v>
+                  <c:v>1105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1766</c:v>
+                  <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>891</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>625</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>359</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>286</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -545,28 +525,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7638</c:v>
+                  <c:v>4658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5438</c:v>
+                  <c:v>2468</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3300</c:v>
+                  <c:v>1289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2060</c:v>
+                  <c:v>758</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>932</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>692</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>374</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>355</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,28 +635,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7767</c:v>
+                  <c:v>4495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5508</c:v>
+                  <c:v>2391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2603</c:v>
+                  <c:v>1296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1579</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>959</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>630</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>407</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>218</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,28 +745,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7917</c:v>
+                  <c:v>4578</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5169</c:v>
+                  <c:v>2391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2554</c:v>
+                  <c:v>1109</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1609</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>915</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>855</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>381</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>312</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,28 +1140,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7903</c:v>
+                  <c:v>4780</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5593</c:v>
+                  <c:v>2413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2733</c:v>
+                  <c:v>1187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1794</c:v>
+                  <c:v>727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>910</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>702</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>485</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>307</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,28 +1250,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7834</c:v>
+                  <c:v>5073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5048</c:v>
+                  <c:v>2599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2655</c:v>
+                  <c:v>1417</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1674</c:v>
+                  <c:v>1358</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>795</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>798</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>406</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>219</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,28 +1360,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7347</c:v>
+                  <c:v>4885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4858</c:v>
+                  <c:v>2448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2361</c:v>
+                  <c:v>1192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500</c:v>
+                  <c:v>938</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>718</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>531</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>271</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>203</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,28 +1470,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7778</c:v>
+                  <c:v>5120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4949</c:v>
+                  <c:v>2420</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2448</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1494</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>750</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>563</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>281</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>203</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3193,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA874AA-FA17-45ED-95F0-40967887101A}">
   <dimension ref="B2:T11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3252,16 +3232,16 @@
         <v>8</v>
       </c>
       <c r="F4" s="6">
-        <v>7564</v>
+        <v>4470</v>
       </c>
       <c r="G4" s="6">
-        <v>7638</v>
+        <v>4658</v>
       </c>
       <c r="H4" s="6">
-        <v>7767</v>
+        <v>4495</v>
       </c>
       <c r="I4" s="6">
-        <v>7917</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="5" spans="2:20" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3275,16 +3255,16 @@
         <v>6</v>
       </c>
       <c r="F5" s="6">
-        <v>5624</v>
+        <v>2363</v>
       </c>
       <c r="G5" s="6">
-        <v>5438</v>
+        <v>2468</v>
       </c>
       <c r="H5" s="6">
-        <v>5508</v>
+        <v>2391</v>
       </c>
       <c r="I5" s="6">
-        <v>5169</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="6" spans="2:20" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3298,16 +3278,16 @@
         <v>5</v>
       </c>
       <c r="F6" s="6">
-        <v>2702</v>
+        <v>1105</v>
       </c>
       <c r="G6" s="6">
-        <v>3300</v>
+        <v>1289</v>
       </c>
       <c r="H6" s="6">
-        <v>2603</v>
+        <v>1296</v>
       </c>
       <c r="I6" s="6">
-        <v>2554</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="2:20" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3321,16 +3301,16 @@
         <v>7</v>
       </c>
       <c r="F7" s="6">
-        <v>1766</v>
+        <v>828</v>
       </c>
       <c r="G7" s="6">
-        <v>2060</v>
+        <v>758</v>
       </c>
       <c r="H7" s="6">
-        <v>1579</v>
+        <v>719</v>
       </c>
       <c r="I7" s="6">
-        <v>1609</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" spans="2:20" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3344,16 +3324,16 @@
         <v>4</v>
       </c>
       <c r="F8" s="6">
-        <v>891</v>
+        <v>437</v>
       </c>
       <c r="G8" s="6">
-        <v>932</v>
+        <v>406</v>
       </c>
       <c r="H8" s="6">
-        <v>959</v>
+        <v>369</v>
       </c>
       <c r="I8" s="6">
-        <v>915</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="2:20" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3367,16 +3347,16 @@
         <v>3</v>
       </c>
       <c r="F9" s="6">
-        <v>625</v>
+        <v>343</v>
       </c>
       <c r="G9" s="6">
-        <v>692</v>
+        <v>266</v>
       </c>
       <c r="H9" s="6">
-        <v>630</v>
+        <v>234</v>
       </c>
       <c r="I9" s="6">
-        <v>855</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:20" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3390,16 +3370,16 @@
         <v>2</v>
       </c>
       <c r="F10" s="6">
-        <v>359</v>
+        <v>157</v>
       </c>
       <c r="G10" s="6">
-        <v>374</v>
+        <v>125</v>
       </c>
       <c r="H10" s="6">
-        <v>407</v>
+        <v>147</v>
       </c>
       <c r="I10" s="6">
-        <v>381</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="2:20" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3413,16 +3393,16 @@
         <v>1</v>
       </c>
       <c r="F11" s="6">
-        <v>286</v>
+        <v>156</v>
       </c>
       <c r="G11" s="6">
-        <v>355</v>
+        <v>109</v>
       </c>
       <c r="H11" s="6">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="I11" s="6">
-        <v>312</v>
+        <v>93</v>
       </c>
       <c r="T11" s="9"/>
     </row>
@@ -3441,7 +3421,7 @@
   <dimension ref="B4:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3480,16 +3460,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="6">
-        <v>7903</v>
+        <v>4780</v>
       </c>
       <c r="D6" s="6">
-        <v>7834</v>
+        <v>5073</v>
       </c>
       <c r="E6" s="6">
-        <v>7347</v>
+        <v>4885</v>
       </c>
       <c r="F6" s="6">
-        <v>7778</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3497,16 +3477,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="6">
-        <v>5593</v>
+        <v>2413</v>
       </c>
       <c r="D7" s="6">
-        <v>5048</v>
+        <v>2599</v>
       </c>
       <c r="E7" s="6">
-        <v>4858</v>
+        <v>2448</v>
       </c>
       <c r="F7" s="6">
-        <v>4949</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3514,16 +3494,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="6">
-        <v>2733</v>
+        <v>1187</v>
       </c>
       <c r="D8" s="6">
-        <v>2655</v>
+        <v>1417</v>
       </c>
       <c r="E8" s="6">
-        <v>2361</v>
+        <v>1192</v>
       </c>
       <c r="F8" s="6">
-        <v>2448</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3531,16 +3511,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="6">
-        <v>1794</v>
+        <v>727</v>
       </c>
       <c r="D9" s="6">
-        <v>1674</v>
+        <v>1358</v>
       </c>
       <c r="E9" s="6">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="F9" s="6">
-        <v>1494</v>
+        <v>890</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3548,16 +3528,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="6">
-        <v>910</v>
+        <v>375</v>
       </c>
       <c r="D10" s="6">
-        <v>795</v>
+        <v>555</v>
       </c>
       <c r="E10" s="6">
-        <v>718</v>
+        <v>359</v>
       </c>
       <c r="F10" s="6">
-        <v>750</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3565,16 +3545,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="6">
-        <v>702</v>
+        <v>282</v>
       </c>
       <c r="D11" s="6">
-        <v>798</v>
+        <v>375</v>
       </c>
       <c r="E11" s="6">
-        <v>531</v>
+        <v>314</v>
       </c>
       <c r="F11" s="6">
-        <v>563</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3582,16 +3562,16 @@
         <v>2</v>
       </c>
       <c r="C12" s="6">
-        <v>485</v>
+        <v>328</v>
       </c>
       <c r="D12" s="6">
-        <v>406</v>
+        <v>157</v>
       </c>
       <c r="E12" s="6">
-        <v>271</v>
+        <v>141</v>
       </c>
       <c r="F12" s="6">
-        <v>281</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3599,16 +3579,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="6">
-        <v>307</v>
+        <v>204</v>
       </c>
       <c r="D13" s="6">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="E13" s="6">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="F13" s="6">
-        <v>203</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
